--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810F6F43-F696-411F-8A8C-4EB91AC99EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A470220-B899-470C-8402-4244C2D26147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="dataResult">Hoja1!$A$12:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>LOTE IV</t>
   </si>
@@ -33,9 +36,6 @@
     <t>MES:</t>
   </si>
   <si>
-    <t>NOVIEMBRE</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -70,6 +70,63 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>{{item.Fecha}}</t>
+  </si>
+  <si>
+    <t>{{item.Volumen}}</t>
+  </si>
+  <si>
+    <t>{{item.PoderCal}}</t>
+  </si>
+  <si>
+    <t>{{item.Energia}}</t>
+  </si>
+  <si>
+    <t>{{item.Precio}}</t>
+  </si>
+  <si>
+    <t>{{item.Costo}}</t>
+  </si>
+  <si>
+    <t>Periodo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punto de Fiscalización:	</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.Periodo}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.PuntoFiscal}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.EnerVolTransM}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.SubTotalFact}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.Igv}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.TotalFact}}</t>
+  </si>
+  <si>
+    <t>{{dataResultResumen.Comentario}}</t>
+  </si>
+  <si>
+    <t>{{Mes}}</t>
+  </si>
+  <si>
+    <t>{{Anio}}</t>
+  </si>
+  <si>
+    <t>UNNA ENERGIA S.A</t>
+  </si>
+  <si>
+    <t>GASNORP S.A.C</t>
   </si>
 </sst>
 </file>
@@ -87,13 +144,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,13 +160,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,24 +175,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -158,42 +209,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -210,6 +349,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0B06B9-D3B5-5158-C87F-675ACEF19C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="33130"/>
+          <a:ext cx="1333500" cy="632066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,169 +680,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:G19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="21">
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:G24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A470220-B899-470C-8402-4244C2D26147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0808F6-C630-4584-AB30-FFC8E6DB0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,53 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="dataResult">Hoja1!$A$12:$G$13</definedName>
+    <definedName name="dataResult">Hoja1!$A$11:$G$12</definedName>
+    <definedName name="Firma">Hoja1!$B$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>LOTE IV</t>
-  </si>
-  <si>
-    <t>MES:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,9 +82,6 @@
     <t>COSTO (USD)</t>
   </si>
   <si>
-    <t>UNNA ENERGÍA S.A. VALORIZACIÓN DE VENTA DE GNS A GASNORP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energía del volumen transferido en MMBTU	</t>
   </si>
   <si>
@@ -117,22 +142,25 @@
     <t>{{dataResultResumen.Comentario}}</t>
   </si>
   <si>
-    <t>{{Mes}}</t>
-  </si>
-  <si>
-    <t>{{Anio}}</t>
-  </si>
-  <si>
     <t>UNNA ENERGIA S.A</t>
   </si>
   <si>
     <t>GASNORP S.A.C</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNNA ENERGÍA S.A. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -210,43 +238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -264,75 +255,449 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,15 +721,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
+      <xdr:colOff>115953</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>654326</xdr:colOff>
+      <xdr:colOff>728870</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>93696</xdr:rowOff>
+      <xdr:rowOff>119887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -394,8 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="762000" y="33130"/>
-          <a:ext cx="1333500" cy="632066"/>
+          <a:off x="728866" y="8283"/>
+          <a:ext cx="1441178" cy="683104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,6 +780,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,247 +1109,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="19">
+        <f>SUM(C11:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <f>SUM(D11:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E13:G13" si="0">SUM(E11:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="16" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="F19" s="41"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="C30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="F29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="22"/>
+      <c r="G30" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B26:C28"/>
-    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="F26:G29"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:G24"/>
     <mergeCell ref="B17:D17"/>
@@ -929,14 +1397,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0808F6-C630-4584-AB30-FFC8E6DB0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D5B80-4EC5-4FFB-A604-10C105768F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Fecha</t>
   </si>
@@ -152,6 +130,21 @@
   </si>
   <si>
     <t xml:space="preserve">UNNA ENERGÍA S.A. </t>
+  </si>
+  <si>
+    <t>{{Total1}}</t>
+  </si>
+  <si>
+    <t>{{Total2}}</t>
+  </si>
+  <si>
+    <t>{{Total3}}</t>
+  </si>
+  <si>
+    <t>{{Total4}}</t>
+  </si>
+  <si>
+    <t>{{Total5}}</t>
   </si>
 </sst>
 </file>
@@ -214,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -247,15 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -572,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -588,88 +572,94 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,26 +668,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,70 +761,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G30"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,65 +1037,66 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1234,38 +1152,33 @@
       <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19">
-        <f>SUM(C11:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <f>SUM(D11:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <f t="shared" ref="E13:G13" si="0">SUM(E11:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1275,119 +1188,110 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="40" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="F30" s="24" t="s">
+      <c r="C31" s="27"/>
+      <c r="F31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:G5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="F26:G29"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:G24"/>
@@ -1397,6 +1301,13 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D5B80-4EC5-4FFB-A604-10C105768F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C7082D-21B5-49EC-AA7C-0CC5B5ECF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">UNNA ENERGÍA S.A. </t>
-  </si>
-  <si>
     <t>{{Total1}}</t>
   </si>
   <si>
@@ -145,6 +142,10 @@
   </si>
   <si>
     <t>{{Total5}}</t>
+  </si>
+  <si>
+    <t>UNNA ENERGÍA S.A. 
+VALORIZACIÓN DE VENTA DE GNS A GASNORP</t>
   </si>
 </sst>
 </file>
@@ -611,74 +612,74 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,15 +703,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>115953</xdr:colOff>
+      <xdr:colOff>124236</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>728870</xdr:colOff>
+      <xdr:colOff>737153</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119887</xdr:rowOff>
+      <xdr:rowOff>111604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,7 +741,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="728866" y="8283"/>
+          <a:off x="737149" y="0"/>
           <a:ext cx="1441178" cy="683104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,9 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1043,60 +1042,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1153,32 +1152,32 @@
         <v>28</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1188,106 +1187,112 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="39" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="F31" s="27" t="s">
+      <c r="C31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:G5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B31:C31"/>
@@ -1302,12 +1307,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B26:C29"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/quincenal/ValorizacionVtaGnsLIV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\quincenal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C7082D-21B5-49EC-AA7C-0CC5B5ECF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDC775-3ADA-40C5-9255-B30B087BD6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -582,35 +582,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,19 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,23 +630,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,7 +1030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1042,60 +1045,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1120,64 +1123,64 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1187,112 +1190,106 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="39" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="F31" s="24" t="s">
+      <c r="C31" s="14"/>
+      <c r="F31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:G5"/>
+  <mergeCells count="19">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B31:C31"/>
@@ -1306,7 +1303,12 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B26:C29"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
